--- a/pred_ohlcv/54_21/2020-01-25 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BCD ohlcv.xlsx
@@ -2342,7 +2342,7 @@
         <v>-17749.81026185002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-17749.81026185002</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-19025.61026185002</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-28742.53172124002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-27700.27082124002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-27701.29543034002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-28086.33203034002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-28591.33203034002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-29491.81003034002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-72760.88351736002</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-72758.08351736002</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-73408.84411736003</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-71670.27541736003</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-74605.45011736003</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-74541.50961736003</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-74701.53751736003</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-75483.53301736004</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-75482.68301736003</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-75482.68301736003</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-75130.38301736003</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-73545.34291736003</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-72122.83701736003</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-81724.39671736002</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-86091.14751736002</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-88067.78141736002</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-88107.42841736002</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-88467.01001736002</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-81004.34347773003</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-71371.98353394</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-71379.98353394</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-71379.98353394</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-69718.17323394</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-69718.17323394</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-69329.20443394</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-67361.47253394</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-67058.89291126</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-67237.49281126</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-66912.29201126</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-64162.29201126</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-61400.67702769</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-92546.75607148001</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-47241.92737623995</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-46301.92737623995</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-46491.92737623995</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-46481.92737623995</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-46661.18087623995</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-45532.18087623995</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 BCD ohlcv.xlsx
@@ -2342,7 +2342,7 @@
         <v>-17749.81026185002</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-17749.81026185002</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-28140.98542124002</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-28742.53172124002</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-27700.27082124002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-27701.29543034002</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-28086.33203034002</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-28591.33203034002</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-29491.81003034002</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-72557.49181736002</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-72760.88351736002</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-72707.69851736003</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-72788.84411736003</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-71670.27541736003</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-74605.45011736003</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-74701.53751736003</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-75462.53301736004</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-75483.53301736004</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-73545.34291736003</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-81724.39671736002</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-86091.14751736002</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-88067.78141736002</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-88107.42841736002</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-88330.67801736003</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-88329.67801736003</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-90929.67801736003</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-90574.52701736003</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-87873.47431736003</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-88261.19971736002</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-88467.01001736002</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-81004.34347773003</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-71371.98353394</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-71379.98353394</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-71379.98353394</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-69718.17323394</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-69718.17323394</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-69329.20443394</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-67361.47253394</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-67058.89291126</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-67237.49281126</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-66912.29201126</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-64162.29201126</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-61400.67702769</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-92546.75607148001</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-53104.11627623995</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-49741.92737623995</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-47241.92737623995</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-46301.92737623995</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-46491.92737623995</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-46481.92737623995</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-46661.18087623995</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-46982.18087623995</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-45532.18087623995</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
